--- a/data/pretest_posttest_FAITH.xlsx
+++ b/data/pretest_posttest_FAITH.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faith\Documents\GitHub\Stat Consulting\Stat_Consult_Thesis_Didith\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7086BBD-4860-4F0D-9EFC-2DC89959A531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10192B76-57D0-4B02-B787-956A54A61EB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>LONHAND GROUP</t>
   </si>
@@ -177,7 +177,13 @@
     <t>p-value &lt;0.05</t>
   </si>
   <si>
-    <t>p-value &gt; 0.05</t>
+    <t>DIFF VOCAB</t>
+  </si>
+  <si>
+    <t>DIFF GRAMMAR</t>
+  </si>
+  <si>
+    <t>DIFF TOTAL</t>
   </si>
 </sst>
 </file>
@@ -693,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18:O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,9 +710,12 @@
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="11" max="13" width="12" customWidth="1"/>
+    <col min="15" max="17" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,8 +744,17 @@
         <v>6</v>
       </c>
       <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="33"/>
       <c r="C2" s="5"/>
@@ -751,8 +769,11 @@
       <c r="L2" s="5"/>
       <c r="M2" s="31"/>
       <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -802,11 +823,11 @@
         <v>AVE</v>
       </c>
       <c r="O3">
-        <f>M3-F3</f>
+        <f>I3-B3</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -856,11 +877,11 @@
         <v>AVE</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O19" si="8">M4-F4</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O4:O17" si="8">I4-B4</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -911,10 +932,10 @@
       </c>
       <c r="O5">
         <f t="shared" si="8"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -965,10 +986,10 @@
       </c>
       <c r="O6">
         <f t="shared" si="8"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1019,10 +1040,10 @@
       </c>
       <c r="O7">
         <f t="shared" si="8"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1073,10 +1094,10 @@
       </c>
       <c r="O8">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1127,10 +1148,10 @@
       </c>
       <c r="O9">
         <f t="shared" si="8"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -1181,10 +1202,10 @@
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -1235,10 +1256,10 @@
       </c>
       <c r="O11">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1289,10 +1310,10 @@
       </c>
       <c r="O12">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1343,10 +1364,10 @@
       </c>
       <c r="O13">
         <f t="shared" si="8"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -1451,10 +1472,10 @@
       </c>
       <c r="O15">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -1505,7 +1526,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1559,7 +1580,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1615,9 +1636,9 @@
         <f t="shared" si="7"/>
         <v>AVE</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="8"/>
-        <v>-0.53333333333333144</v>
+      <c r="O18" s="15">
+        <f>AVERAGE(O3:O17)</f>
+        <v>-1.2666666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -1655,9 +1676,9 @@
         <v>3.3051186852833991</v>
       </c>
       <c r="N19" s="9"/>
-      <c r="O19">
-        <f t="shared" si="8"/>
-        <v>-2.1389694144900773</v>
+      <c r="O19" s="17">
+        <f>STDEV(O3:O17)</f>
+        <v>2.8149262021959873</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -1842,9 +1863,6 @@
       <c r="M33" t="s">
         <v>39</v>
       </c>
-      <c r="O33" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
@@ -1863,9 +1881,6 @@
       <c r="M34" t="s">
         <v>41</v>
       </c>
-      <c r="O34" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
@@ -2117,7 +2132,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:D2"/>
